--- a/3.Docs/08-管脚对应表.xlsx
+++ b/3.Docs/08-管脚对应表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\Code\DC_Motor_Drive\3.Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\Code\DC-motor-drive\3.Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D398D-1C7F-4C8C-AE37-F3214AF588FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839D819-99C1-486A-B784-56F508A5755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,23 +333,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -430,6 +413,23 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -448,22 +448,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10508</xdr:colOff>
+      <xdr:colOff>15765</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>260748</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73571</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>157655</xdr:rowOff>
+      <xdr:rowOff>174034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09B2B9E-F510-CCE8-5710-0F880AFF9829}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F4165A-3420-415E-3505-DEF1FBCBC2DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -471,16 +471,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="19192"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4188370" y="0"/>
-          <a:ext cx="4054985" cy="4325007"/>
+          <a:off x="4193627" y="0"/>
+          <a:ext cx="4472151" cy="4341386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B3F656-AE3E-4B7F-948E-59DACF24C687}" name="表1" displayName="表1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12B3F656-AE3E-4B7F-948E-59DACF24C687}" name="表1" displayName="表1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D22" xr:uid="{12B3F656-AE3E-4B7F-948E-59DACF24C687}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -501,10 +500,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7EE054E-CCBC-425D-B8D0-1D240AB1D111}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2B502AED-26F2-4614-9154-C6A21A53482E}" name="管脚编号" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{887E6ED5-3845-45AF-9B6B-75DD35BF9C78}" name="网络编号" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D1F2C7E1-139E-4C59-8548-51F042C61841}" name="说明" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D7EE054E-CCBC-425D-B8D0-1D240AB1D111}" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2B502AED-26F2-4614-9154-C6A21A53482E}" name="管脚编号" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{887E6ED5-3845-45AF-9B6B-75DD35BF9C78}" name="网络编号" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D1F2C7E1-139E-4C59-8548-51F042C61841}" name="说明" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,7 +775,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
